--- a/Assets/ExcelDatas/ModifyList.xlsx
+++ b/Assets/ExcelDatas/ModifyList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9ECF9F-FAAA-44D0-99C1-6049B5DDD703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB16E5F5-659B-46E8-B9C4-A3CD77828672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14895" yWindow="2295" windowWidth="20595" windowHeight="13260" xr2:uid="{107A21A1-0646-4343-B991-39F58D2DD10E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="7" xr2:uid="{107A21A1-0646-4343-B991-39F58D2DD10E}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 수정 내용" sheetId="9" r:id="rId1"/>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="219">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -441,10 +441,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>스킬의 전체 공격속도를 강화 합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon/Icon_Flat__37</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -457,10 +453,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터의 이동속도를 강화 합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon/Icon_Flat__46</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -473,10 +465,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터의 방어력을 강화 합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon/Icon_Flat__40</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -489,10 +477,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터의 크리티컬 데미지를 강화 합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon/Icon_Flat__31</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -795,10 +779,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{0}의 사선 투사체가 추가 됩니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AddSlashProjectile</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -808,10 +788,6 @@
   </si>
   <si>
     <t>집중포화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 직선 투사체가 추가 됩니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -905,14 +881,6 @@
       </rPr>
       <t>CriticalDamage 칼럼 삭제 필요</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 체력을 즉시 회복합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 지속적으로 체력을 회복합니다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1260,22 +1228,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>추가 해야할 내용 : 페어리 스킬 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                         몬스터 테이블 몬스터 개체 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                                     스킬 테이블의 몬스터 스킬 삭제 필요</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>스킬의 전체 피해량을 강화 합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                         스킬 인첸트 테이블에 업글 가능한 스킬 리스트 칼럼 추가 ( 태훈님 작업 예정 )</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1292,10 +1248,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Description 컬럼과 EnchantEffect1 컬럼 사이에 다음과 같은 DESIGN 컬럼 추가 필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>인자값 설명</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1308,7 +1260,150 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkillEnchantTable에 다음 데이터 추가 필요</t>
+    <t>회심의일격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamageControl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description 컬럼과 EnchantEffect1 컬럼 사이에 다음과 같은 DESIGN 컬럼 추가 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}: 해당 스킬의 SkillTable.Name   {1}: EnchantEffectValue1 * 100</t>
+  </si>
+  <si>
+    <t>{0}의 크리티컬 피해량을 {1}% 강화합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} 소환 빈도가 {1}% 빨라집니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 최대체력이 {1}% 강화합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환계약</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Familiar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamiliarHealthControl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__47</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}: 해당 스킬의 SkillTable.Name   {1}: EnchantEffectValue1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 사선 투사체가 {1}개 추가 됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 직선 투사체가 {1}개 추가 됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnchantEffect1 인자값 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 크리티컬 데미지를 강화 합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력을 강화 합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 강화 합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 공격속도를 강화 합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스킬의 피해량을 강화 합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속적으로 체력을 회복합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 즉시 회복합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                         몬스터 테이블 몬스터 개체 추가 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEnchantTable에 아래의 데이터 추가 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획자가 추가 해야할 내용 : 페어리 스킬 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 수정 내용들</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 사항 :</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 테이블에서 보스의 기초 스탯을 받을 생각인데, 보스의 이동속도가 없음 → 테이블을 하나 더 뺴서 보스를 구현 할것인지 혹은 이동속도 칼럼을 추가하여 일반 몬스터들은 적용 받지 않게 할것인지 물어보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhaseTable에 ScrollSpeed가 있는데, 몬스터 스크롤 스피드만 빠져있는것으로 확인, 맵스크롤 속도도 변수로 빼야할것 같은데, 칼럼을 추가 해도 되는지 // 1.우리가 컨트롤 할 수 있게 구현하는 방법 알려주세요 2.페이즈별로 배경과 몬스터 스크롤 속도를 다르게 갈 수 있어야 해요 3.값 하나만 만지면 조절 할 수 있게 만들 수 있는지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 : 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 : 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.445 : 8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.22 : 4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1316,7 +1411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,8 +1615,40 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,6 +1664,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,7 +1725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1689,226 +1822,53 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="78">
     <dxf>
       <font>
         <b val="0"/>
@@ -1955,6 +1915,274 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2088,26 +2316,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3023,125 +3231,127 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9F9C91F-1C8C-41D6-A66F-68F0078F6655}" name="표2" displayName="표2" ref="A3:L4" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9F9C91F-1C8C-41D6-A66F-68F0078F6655}" name="표2" displayName="표2" ref="A3:L4" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A3:L4" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{7CB544A8-404F-4BFC-A091-47CFD75C3C17}" name="Name" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{8F2BD88E-EB94-43B9-A509-CDC62FD7CB70}" name="ID" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{05728D38-D55B-4FB7-A8D4-85195FB6A8E2}" name="AttackDamage" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{696FE9BE-48B4-4D49-BE9C-6403A7612127}" name="AttackSpeed" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{744CC063-A851-4530-95A1-9F21B9F901C0}" name="Defence" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{8FAB34E5-EC2A-4DCE-8B72-E4AFBCC71706}" name="MoveSpeed" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{5569F248-1B3D-41B7-8D25-10467A4DE5B7}" name="CriticalPercent" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{1F29868B-E97F-403C-B216-91873BB5595D}" name="CriticalDamage" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{6F304A76-4612-4B62-9C32-241657D84899}" name="HP" dataDxfId="65"/>
-    <tableColumn id="12" xr3:uid="{EF678D7F-BF3C-4B97-B5DD-A4A75E59C346}" name="HPRegen" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{E349DE61-B526-4965-8041-7DFED520E411}" name="MaxLV" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{7846A915-8055-4F27-938D-06CD01F169A3}" name="Prefab" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{7CB544A8-404F-4BFC-A091-47CFD75C3C17}" name="Name" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{8F2BD88E-EB94-43B9-A509-CDC62FD7CB70}" name="ID" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{05728D38-D55B-4FB7-A8D4-85195FB6A8E2}" name="AttackDamage" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{696FE9BE-48B4-4D49-BE9C-6403A7612127}" name="AttackSpeed" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{744CC063-A851-4530-95A1-9F21B9F901C0}" name="Defence" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{8FAB34E5-EC2A-4DCE-8B72-E4AFBCC71706}" name="MoveSpeed" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{5569F248-1B3D-41B7-8D25-10467A4DE5B7}" name="CriticalPercent" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{1F29868B-E97F-403C-B216-91873BB5595D}" name="CriticalDamage" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{6F304A76-4612-4B62-9C32-241657D84899}" name="HP" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{EF678D7F-BF3C-4B97-B5DD-A4A75E59C346}" name="HPRegen" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{E349DE61-B526-4965-8041-7DFED520E411}" name="MaxLV" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{7846A915-8055-4F27-938D-06CD01F169A3}" name="Prefab" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2F36C019-0A18-4DCB-8815-6A60B8F3C5A2}" name="표2_28" displayName="표2_28" ref="A3:F33" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2F36C019-0A18-4DCB-8815-6A60B8F3C5A2}" name="표2_28" displayName="표2_28" ref="A3:F33" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A3:F33" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6D30D3B3-1B53-489B-B440-02B0006CBC0C}" name="Index" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{27E98AC4-ECC0-4C75-9074-ED47BB267B4F}" name="UpgradeStat" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{CC393B21-34A4-48BC-8D2C-AE28B277BD33}" name="AddStat" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{0023BB24-603C-4983-A9AB-D5544719B118}" name="Level" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{16B6C141-6B59-4C7D-9D27-9B3048D5C6E0}" name="Gold" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{C910DFBC-5A8F-4916-B844-06C12EF1DA60}" name="Icon" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{6D30D3B3-1B53-489B-B440-02B0006CBC0C}" name="Index" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{27E98AC4-ECC0-4C75-9074-ED47BB267B4F}" name="UpgradeStat" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{CC393B21-34A4-48BC-8D2C-AE28B277BD33}" name="AddStat" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{0023BB24-603C-4983-A9AB-D5544719B118}" name="Level" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{16B6C141-6B59-4C7D-9D27-9B3048D5C6E0}" name="Gold" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{C910DFBC-5A8F-4916-B844-06C12EF1DA60}" name="Icon" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{45633B0E-68A5-41F3-ADCE-9BF06EE33BB4}" name="표2_5" displayName="표2_5" ref="A3:L14" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{45633B0E-68A5-41F3-ADCE-9BF06EE33BB4}" name="표2_5" displayName="표2_5" ref="A3:L14" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A3:L14" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EBF4DAC4-E485-4D9D-A04C-1FF5740A0436}" name="Index" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{3DCD96C4-F49F-4FB2-A153-4268C7CE215F}" name="Name" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{1A91ACDD-5769-43DD-A526-69DCDEFFE4D7}" name="Description" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{85868E17-561D-4FDC-8021-2445C43309C1}" name="Icon" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{DCBCB87D-0104-4011-84E4-3DECF45CC730}" name="SkillDamageRate" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{34515784-2CC4-41C2-ADF9-282A7CCD658B}" name="SkillSpeedRate" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{205703F0-EBB5-475E-AF64-48E2FC1B2E73}" name="SkillCriticalDamageRate" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{3D93A399-6EAC-4CA8-8B87-689AEA4BC262}" name="Range" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{10567052-36A5-4B34-9088-CE12772C1A5E}" name="ProjectileSpeed" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{57904C78-EFFF-4561-8ED8-4D334793EB22}" name="ProjectileSize" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{9717247C-7C31-43F4-AE72-E8F31EF4AEAD}" name="Prefab" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{76E62E8E-4E81-4534-8557-784FBE893352}" name="Type" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{EBF4DAC4-E485-4D9D-A04C-1FF5740A0436}" name="Index" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{3DCD96C4-F49F-4FB2-A153-4268C7CE215F}" name="Name" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{1A91ACDD-5769-43DD-A526-69DCDEFFE4D7}" name="Description" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{85868E17-561D-4FDC-8021-2445C43309C1}" name="Icon" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{DCBCB87D-0104-4011-84E4-3DECF45CC730}" name="SkillDamageRate" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{34515784-2CC4-41C2-ADF9-282A7CCD658B}" name="SkillSpeedRate" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{205703F0-EBB5-475E-AF64-48E2FC1B2E73}" name="SkillCriticalDamageRate" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{3D93A399-6EAC-4CA8-8B87-689AEA4BC262}" name="Range" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{10567052-36A5-4B34-9088-CE12772C1A5E}" name="ProjectileSpeed" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{57904C78-EFFF-4561-8ED8-4D334793EB22}" name="ProjectileSize" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{9717247C-7C31-43F4-AE72-E8F31EF4AEAD}" name="Prefab" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{76E62E8E-4E81-4534-8557-784FBE893352}" name="Type" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E21C8AAD-32FA-44FF-B57C-A03E41D67B98}" name="표2_26" displayName="표2_26" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E21C8AAD-32FA-44FF-B57C-A03E41D67B98}" name="표2_26" displayName="표2_26" ref="A3:F5" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A3:F5" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F1E30E9A-278B-4DFE-9842-F64DAA643741}" name="Index" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{E4DE5F62-3744-49C4-95EE-200C26CF209C}" name="Name" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{1677F77C-A170-4BC0-AFFA-BC3EB0BA3CCC}" name="SkillId" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{2BBBC51A-BD83-4949-8C9B-4B7C7B47E324}" name="MaxHp" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{FF5376AE-6519-401A-94D5-6CCEC847089E}" name="MoveSpeed" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{0DBEB1CC-7DD1-4505-98A5-1F54AD6AC1C3}" name="PamiliarSkillId" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{F1E30E9A-278B-4DFE-9842-F64DAA643741}" name="Index" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{E4DE5F62-3744-49C4-95EE-200C26CF209C}" name="Name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{1677F77C-A170-4BC0-AFFA-BC3EB0BA3CCC}" name="SkillId" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{2BBBC51A-BD83-4949-8C9B-4B7C7B47E324}" name="MaxHp" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{FF5376AE-6519-401A-94D5-6CCEC847089E}" name="MoveSpeed" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{0DBEB1CC-7DD1-4505-98A5-1F54AD6AC1C3}" name="PamiliarSkillId" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{011331C0-1DA8-4957-A206-75FBFDCC6DE4}" name="표2_7" displayName="표2_7" ref="A3:H9" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A3:H9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{57F875E7-DE9D-4E4B-9973-A6704730C3AE}" name="Index" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{CB0E740E-3CCC-4E49-AD3C-2FF3F358206B}" name="Name" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{0D368FD5-B60D-4B67-8D18-242DFC41A5A6}" name="Description" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{67ED2EAF-396C-4FD9-AFD9-E8E2101178D4}" name="EnchantEffect1" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{A210907B-D61A-4975-AB85-DFFEFD9FB446}" name="EnchantEffectValue1" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{1DDF5DF9-4B24-4388-B459-36C2C3ABF06F}" name="MaxCnt" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{53CABA02-08D0-4736-8FFB-3B418A862A7B}" name="Icon" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{5654E583-0AC5-4497-BB14-4E998BE44C4C}" name="ColortoBlack" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{011331C0-1DA8-4957-A206-75FBFDCC6DE4}" name="표2_7" displayName="표2_7" ref="A3:I12" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A3:I12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{57F875E7-DE9D-4E4B-9973-A6704730C3AE}" name="Index" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{CB0E740E-3CCC-4E49-AD3C-2FF3F358206B}" name="Name" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{0D368FD5-B60D-4B67-8D18-242DFC41A5A6}" name="Description" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{67ED2EAF-396C-4FD9-AFD9-E8E2101178D4}" name="EnchantEffect1" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{A210907B-D61A-4975-AB85-DFFEFD9FB446}" name="EnchantEffectValue1" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{1DDF5DF9-4B24-4388-B459-36C2C3ABF06F}" name="MaxCnt" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{53CABA02-08D0-4736-8FFB-3B418A862A7B}" name="Icon" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{5654E583-0AC5-4497-BB14-4E998BE44C4C}" name="ColortoBlack" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{5A81D32E-4B76-4DAD-A1A3-98718A7C3681}" name="EnchantEffect1 인자값 설명" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{682159B4-DE01-4A2B-B554-2A17596983E1}" name="표2_2" displayName="표2_2" ref="A3:G10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{682159B4-DE01-4A2B-B554-2A17596983E1}" name="표2_2" displayName="표2_2" ref="A3:G10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A3:G10" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{09C0269C-1EFF-4C67-BC33-8DCC9B96CF9C}" name="Index" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{509519D6-D0A0-4B19-B9FE-2F90BD75F34C}" name="Name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{5A32E3E9-139C-4A75-AF97-4877342E162A}" name="SelectStatName" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{10F9E119-F4F4-4F2D-8BF7-D8DE39627B62}" name="SelectStatRateValue" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{6E042010-652D-4200-8A4C-A9B90EB34371}" name="Description" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{46431663-C6C2-4913-993A-C4A1957495E0}" name="Icon" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{2B25E974-9DF6-46FE-92FF-D42BD378913D}" name="MaxCount" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{09C0269C-1EFF-4C67-BC33-8DCC9B96CF9C}" name="Index" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{509519D6-D0A0-4B19-B9FE-2F90BD75F34C}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{5A32E3E9-139C-4A75-AF97-4877342E162A}" name="SelectStatName" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{10F9E119-F4F4-4F2D-8BF7-D8DE39627B62}" name="SelectStatRateValue" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{6E042010-652D-4200-8A4C-A9B90EB34371}" name="Description" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{46431663-C6C2-4913-993A-C4A1957495E0}" name="Icon" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{2B25E974-9DF6-46FE-92FF-D42BD378913D}" name="MaxCount" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E7FC12D-5CBA-4898-BE15-EA9E2EC314EE}" name="표1_34" displayName="표1_34" ref="A3:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A3:K9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FC42F1F3-78A0-42F0-9383-677B9B37D2CF}" name="ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{613BEC66-0EB8-4B17-8365-5932C1FB4999}" name="Name" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{3D2A5B08-D92D-4017-9418-D0C9281371B5}" name="MonsterType" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{852E66DD-26D6-4EC8-9BA9-6132C572EB2C}" name="MaxHP" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{FC73F6E6-8903-452C-A256-4F7E0B4FAF31}" name="Attack" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{E6C3B210-BEB4-4DCE-9B69-DE4D058C5771}" name="Defence" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7CF5A94E-AD47-41DA-8C57-145FB06C75F3}" name="EXP" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{61634163-60EC-4035-9131-1C16759FEBB7}" name="Gold" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{DBD0900E-9A4C-4201-B61C-11C81328CC81}" name="Score" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{F7AEEB59-CB34-4DA5-8224-661A12DD2BF1}" name="Skill" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{16C3100D-9FFC-483B-A9C4-075CE4B3543A}" name="PrefabPath" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E7FC12D-5CBA-4898-BE15-EA9E2EC314EE}" name="표1_34" displayName="표1_34" ref="A3:L9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A3:L9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{FC42F1F3-78A0-42F0-9383-677B9B37D2CF}" name="ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{613BEC66-0EB8-4B17-8365-5932C1FB4999}" name="Name" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{3D2A5B08-D92D-4017-9418-D0C9281371B5}" name="MonsterType" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{852E66DD-26D6-4EC8-9BA9-6132C572EB2C}" name="MaxHP" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FC73F6E6-8903-452C-A256-4F7E0B4FAF31}" name="Attack" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{281F313E-0DAC-44A4-B19A-71F24E673C0E}" name="RangeAttack" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{E6C3B210-BEB4-4DCE-9B69-DE4D058C5771}" name="Defence" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7CF5A94E-AD47-41DA-8C57-145FB06C75F3}" name="EXP" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{61634163-60EC-4035-9131-1C16759FEBB7}" name="Gold" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{DBD0900E-9A4C-4201-B61C-11C81328CC81}" name="Score" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{F7AEEB59-CB34-4DA5-8224-661A12DD2BF1}" name="Skill" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{16C3100D-9FFC-483B-A9C4-075CE4B3543A}" name="PrefabPath" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3444,157 +3654,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADA991F-5F88-4B06-90B8-4ACF55270694}">
-  <dimension ref="C3:D32"/>
+  <dimension ref="C3:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="46.375" customWidth="1"/>
+    <col min="4" max="4" width="46.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C5" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C6" s="27"/>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C7" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C8" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C9" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C10" s="28"/>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="28"/>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="24" t="s">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C11" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C13" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C15" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C16" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C22" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C25" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D28" s="33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D29" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D30" s="24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="25" t="s">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D31" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D32" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D33" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D35" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D36" s="36" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D37" s="32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>179</v>
-      </c>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C40" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3603,26 +3864,26 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="2"/>
+    <col min="1" max="1" width="8.69921875" style="2"/>
     <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.09765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3698,7 +3959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3727,7 +3988,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>14</v>
@@ -3736,7 +3997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -3792,18 +4053,18 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="4"/>
+    <col min="4" max="4" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3814,21 +4075,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>4</v>
@@ -3843,27 +4104,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>12001</v>
       </c>
@@ -3880,10 +4141,10 @@
         <v>1000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>12002</v>
       </c>
@@ -3900,10 +4161,10 @@
         <v>3000</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>12003</v>
       </c>
@@ -3920,10 +4181,10 @@
         <v>5000</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>12004</v>
       </c>
@@ -3940,10 +4201,10 @@
         <v>6000</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>12005</v>
       </c>
@@ -3960,10 +4221,10 @@
         <v>8000</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>12006</v>
       </c>
@@ -3980,10 +4241,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>12007</v>
       </c>
@@ -4000,10 +4261,10 @@
         <v>3000</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>12008</v>
       </c>
@@ -4020,10 +4281,10 @@
         <v>5000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>12009</v>
       </c>
@@ -4040,10 +4301,10 @@
         <v>6000</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12010</v>
       </c>
@@ -4060,15 +4321,15 @@
         <v>8000</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" s="16">
         <v>0.05</v>
@@ -4080,15 +4341,15 @@
         <v>1000</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>12012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C15" s="16">
         <v>0.05</v>
@@ -4100,15 +4361,15 @@
         <v>3000</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" s="16">
         <v>0.05</v>
@@ -4120,15 +4381,15 @@
         <v>5000</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>12014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" s="16">
         <v>0.05</v>
@@ -4140,15 +4401,15 @@
         <v>6000</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>12015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C18" s="16">
         <v>0.05</v>
@@ -4160,10 +4421,10 @@
         <v>8000</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>12016</v>
       </c>
@@ -4180,10 +4441,10 @@
         <v>1000</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>12017</v>
       </c>
@@ -4200,10 +4461,10 @@
         <v>3000</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>12018</v>
       </c>
@@ -4220,10 +4481,10 @@
         <v>5000</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>12019</v>
       </c>
@@ -4240,10 +4501,10 @@
         <v>6000</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>12020</v>
       </c>
@@ -4260,15 +4521,15 @@
         <v>8000</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>12021</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C24" s="16">
         <v>0.05</v>
@@ -4280,15 +4541,15 @@
         <v>1000</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>12022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C25" s="16">
         <v>0.05</v>
@@ -4300,15 +4561,15 @@
         <v>3000</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>12023</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C26" s="16">
         <v>0.05</v>
@@ -4320,15 +4581,15 @@
         <v>5000</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>12024</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C27" s="16">
         <v>0.05</v>
@@ -4340,15 +4601,15 @@
         <v>6000</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>12025</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C28" s="16">
         <v>0.05</v>
@@ -4360,15 +4621,15 @@
         <v>8000</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>12026</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C29" s="16">
         <v>20</v>
@@ -4380,15 +4641,15 @@
         <v>1000</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>12027</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C30" s="16">
         <v>20</v>
@@ -4400,15 +4661,15 @@
         <v>3000</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>12028</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C31" s="16">
         <v>20</v>
@@ -4420,15 +4681,15 @@
         <v>5000</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>12029</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C32" s="16">
         <v>20</v>
@@ -4440,15 +4701,15 @@
         <v>6000</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>12030</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C33" s="16">
         <v>20</v>
@@ -4460,10 +4721,10 @@
         <v>8000</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F34" s="5"/>
     </row>
   </sheetData>
@@ -4481,26 +4742,26 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="4"/>
+    <col min="12" max="16384" width="8.59765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4517,16 +4778,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
@@ -4538,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4573,10 +4834,10 @@
         <v>2</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -4590,42 +4851,42 @@
         <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -4646,24 +4907,24 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>10002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3">
         <v>1.7</v>
@@ -4684,24 +4945,24 @@
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>10003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -4722,24 +4983,24 @@
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>10004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -4760,24 +5021,24 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>10005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
@@ -4798,24 +5059,24 @@
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>10006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -4836,24 +5097,24 @@
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>10500</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -4874,24 +5135,24 @@
         <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10501</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3">
         <v>1.5</v>
@@ -4912,24 +5173,24 @@
         <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10502</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -4950,24 +5211,24 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>10503</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -4988,24 +5249,24 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10504</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -5026,10 +5287,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5047,40 +5308,40 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5100,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5108,24 +5369,24 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>11001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3">
         <v>10005</v>
@@ -5140,12 +5401,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>11002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3">
         <v>10006</v>
@@ -5172,26 +5433,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBBBDD2-E27C-4D96-BC21-25143677DA6E}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="4"/>
+    <col min="1" max="1" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="48.296875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5211,13 +5473,16 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5228,7 +5493,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -5239,11 +5504,14 @@
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5254,33 +5522,36 @@
         <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>14000</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" s="16">
         <v>0.2</v>
@@ -5289,24 +5560,27 @@
         <v>99</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="H4" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>14001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="16">
         <v>0.2</v>
@@ -5315,24 +5589,27 @@
         <v>99</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="H5" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>14002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E6" s="16">
         <v>0.2</v>
@@ -5341,24 +5618,27 @@
         <v>99</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="H6" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>14003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E7" s="16">
         <v>0.2</v>
@@ -5367,66 +5647,159 @@
         <v>99</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="H7" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>14004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>14005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="3">
+        <v>118</v>
+      </c>
+      <c r="E9" s="16">
         <v>1</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H10" s="3"/>
+      <c r="G9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="15">
+        <v>14006</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>99</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
+        <v>14007</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>99</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="15">
+        <v>14008</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>99</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5442,23 +5815,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55219671-309A-4099-A8D2-6EC2A0913054}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="4"/>
+    <col min="1" max="1" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5504,7 +5877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5527,7 +5900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>16000</v>
       </c>
@@ -5541,7 +5914,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
@@ -5550,7 +5923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>16001</v>
       </c>
@@ -5564,125 +5937,125 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>16002</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>16003</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="G7" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>16004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="16">
         <v>0.5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G8" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>16005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="16">
         <v>1E-3</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>16006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="16">
         <v>0.7</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G10" s="5">
         <v>99</v>
@@ -5701,26 +6074,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F84BF4-40BE-4FF3-8B6F-25F3DFC5FCB8}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="11.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="19"/>
-    <col min="5" max="5" width="14.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="19"/>
-    <col min="8" max="10" width="9" style="19"/>
-    <col min="11" max="11" width="47.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="19"/>
+    <col min="5" max="5" width="14.09765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9" style="19"/>
+    <col min="8" max="8" width="9" style="40"/>
+    <col min="9" max="11" width="9" style="19"/>
+    <col min="12" max="12" width="47.69921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5736,7 +6111,7 @@
       <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -5754,8 +6129,11 @@
       <c r="K1" s="18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="L1" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -5763,7 +6141,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>4</v>
@@ -5771,11 +6149,11 @@
       <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>3</v>
+      <c r="G2" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>3</v>
@@ -5787,10 +6165,13 @@
         <v>3</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
@@ -5798,42 +6179,45 @@
         <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>155</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A4" s="19">
         <v>1010</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D4" s="19">
         <v>200</v>
@@ -5841,8 +6225,8 @@
       <c r="E4" s="20">
         <v>100</v>
       </c>
-      <c r="F4" s="20">
-        <v>10</v>
+      <c r="F4" s="39">
+        <v>100</v>
       </c>
       <c r="G4" s="20">
         <v>10</v>
@@ -5854,21 +6238,24 @@
         <v>10</v>
       </c>
       <c r="J4" s="20">
+        <v>10</v>
+      </c>
+      <c r="K4" s="20">
         <v>0</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="L4" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A5" s="19">
         <v>1011</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D5" s="19">
         <v>200</v>
@@ -5876,8 +6263,8 @@
       <c r="E5" s="20">
         <v>100</v>
       </c>
-      <c r="F5" s="20">
-        <v>10</v>
+      <c r="F5" s="39">
+        <v>100</v>
       </c>
       <c r="G5" s="20">
         <v>10</v>
@@ -5889,21 +6276,24 @@
         <v>10</v>
       </c>
       <c r="J5" s="20">
+        <v>10</v>
+      </c>
+      <c r="K5" s="20">
         <v>0</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="L5" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A6" s="19">
         <v>1012</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="19">
         <v>200</v>
@@ -5911,8 +6301,8 @@
       <c r="E6" s="20">
         <v>100</v>
       </c>
-      <c r="F6" s="20">
-        <v>10</v>
+      <c r="F6" s="39">
+        <v>100</v>
       </c>
       <c r="G6" s="20">
         <v>10</v>
@@ -5924,21 +6314,24 @@
         <v>10</v>
       </c>
       <c r="J6" s="20">
+        <v>10</v>
+      </c>
+      <c r="K6" s="20">
         <v>0</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="L6" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A7" s="19">
         <v>1013</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -5946,7 +6339,7 @@
       <c r="E7" s="20">
         <v>100</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="39">
         <v>0</v>
       </c>
       <c r="G7" s="20">
@@ -5961,19 +6354,22 @@
       <c r="J7" s="20">
         <v>0</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
         <v>1014</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -5981,7 +6377,7 @@
       <c r="E8" s="20">
         <v>100</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="39">
         <v>0</v>
       </c>
       <c r="G8" s="20">
@@ -5996,19 +6392,22 @@
       <c r="J8" s="20">
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A9" s="19">
         <v>1015</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D9" s="19">
         <v>1000</v>
@@ -6016,11 +6415,11 @@
       <c r="E9" s="20">
         <v>200</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="39">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
         <v>50</v>
-      </c>
-      <c r="G9" s="20">
-        <v>100</v>
       </c>
       <c r="H9" s="20">
         <v>100</v>
@@ -6029,11 +6428,17 @@
         <v>100</v>
       </c>
       <c r="J9" s="20">
+        <v>100</v>
+      </c>
+      <c r="K9" s="20">
         <v>10008</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>173</v>
-      </c>
+      <c r="L9" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E10" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
